--- a/Assignment1/data/ODI-2020_cleaned.xlsx
+++ b/Assignment1/data/ODI-2020_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annemijndijkhuis/Documents/Computational Science/Data mining techniques/datamining/Assignment1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A752EC6-6A5F-3B4C-B8C7-3E8548D1A1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C2953-E015-834C-860E-639A9B0FA540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODI-2020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="870">
   <si>
     <t>What programme are you in?</t>
   </si>
@@ -1627,9 +1627,6 @@
     <t>19-02-1997</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>15-08</t>
   </si>
   <si>
@@ -1954,9 +1951,6 @@
     <t>13-06-1993</t>
   </si>
   <si>
-    <t>0 - I'm Quarantining :(</t>
-  </si>
-  <si>
     <t>other people</t>
   </si>
   <si>
@@ -2212,9 +2206,6 @@
     <t>28th February</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>If I get to go to work</t>
   </si>
   <si>
@@ -2563,9 +2554,6 @@
     <t>16 may</t>
   </si>
   <si>
-    <t>right now 0</t>
-  </si>
-  <si>
     <t>super good indian or italian food</t>
   </si>
   <si>
@@ -2615,6 +2603,33 @@
   </si>
   <si>
     <t>19-05-1997</t>
+  </si>
+  <si>
+    <t>Socializing</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excersice </t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>Food/Drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excercise </t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
 </sst>
 </file>
@@ -2887,19 +2902,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R281"/>
+  <dimension ref="A1:AD281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R164" sqref="R164"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="11" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="11" width="21.5" customWidth="1"/>
     <col min="12" max="12" width="24.1640625" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
     <col min="14" max="14" width="35.1640625" customWidth="1"/>
@@ -2908,7 +2925,7 @@
     <col min="17" max="22" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3007,8 +3024,14 @@
       <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3057,8 +3080,44 @@
       <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" t="s">
+        <v>864</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="U3" t="s">
+        <v>865</v>
+      </c>
+      <c r="V3" t="s">
+        <v>329</v>
+      </c>
+      <c r="W3" t="s">
+        <v>863</v>
+      </c>
+      <c r="X3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>861</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>862</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>864</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -3107,8 +3166,17 @@
       <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q4" t="s">
+        <v>633</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -3157,8 +3225,17 @@
       <c r="P5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q5" t="s">
+        <v>865</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3207,9 +3284,17 @@
       <c r="P6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -3258,8 +3343,14 @@
       <c r="P7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -3308,8 +3399,14 @@
       <c r="P8" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" t="s">
+        <v>861</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3358,8 +3455,14 @@
       <c r="P9" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -3408,8 +3511,14 @@
       <c r="P10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" t="s">
+        <v>861</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -3458,8 +3567,14 @@
       <c r="P11" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -3508,8 +3623,14 @@
       <c r="P12" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" t="s">
+        <v>864</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3558,8 +3679,14 @@
       <c r="P13" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3608,8 +3735,14 @@
       <c r="P14" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" t="s">
+        <v>633</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -3658,8 +3791,14 @@
       <c r="P15" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -3708,9 +3847,14 @@
       <c r="P16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" t="s">
+        <v>865</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3903,14 @@
       <c r="P17" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -3809,8 +3959,14 @@
       <c r="P18" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
@@ -3859,8 +4015,14 @@
       <c r="P19" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
@@ -3883,7 +4045,7 @@
         <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -3909,8 +4071,14 @@
       <c r="P20" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" t="s">
+        <v>865</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>99</v>
       </c>
@@ -3959,8 +4127,14 @@
       <c r="P21" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
@@ -4009,8 +4183,14 @@
       <c r="P22" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22" t="s">
+        <v>329</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -4059,8 +4239,14 @@
       <c r="P23" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -4109,8 +4295,14 @@
       <c r="P24" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" t="s">
+        <v>329</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -4159,8 +4351,14 @@
       <c r="P25" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -4209,8 +4407,14 @@
       <c r="P26" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" t="s">
+        <v>861</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4259,8 +4463,14 @@
       <c r="P27" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>125</v>
       </c>
@@ -4309,8 +4519,14 @@
       <c r="P28" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -4359,8 +4575,14 @@
       <c r="P29" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>134</v>
       </c>
@@ -4409,8 +4631,14 @@
       <c r="P30" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>138</v>
       </c>
@@ -4459,8 +4687,14 @@
       <c r="P31" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -4509,8 +4743,14 @@
       <c r="P32" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>138</v>
       </c>
@@ -4559,8 +4799,14 @@
       <c r="P33" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -4609,8 +4855,14 @@
       <c r="P34" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>146</v>
       </c>
@@ -4659,8 +4911,14 @@
       <c r="P35" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -4709,8 +4967,14 @@
       <c r="P36" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -4759,8 +5023,14 @@
       <c r="P37" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
@@ -4809,8 +5079,14 @@
       <c r="P38" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -4859,8 +5135,14 @@
       <c r="P39" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -4909,8 +5191,14 @@
       <c r="P40" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -4959,8 +5247,14 @@
       <c r="P41" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q41" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>170</v>
       </c>
@@ -5009,8 +5303,14 @@
       <c r="P42" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -5059,8 +5359,14 @@
       <c r="P43" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>176</v>
       </c>
@@ -5109,8 +5415,14 @@
       <c r="P44" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
@@ -5159,8 +5471,14 @@
       <c r="P45" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -5209,8 +5527,14 @@
       <c r="P46" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
@@ -5259,8 +5583,14 @@
       <c r="P47" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -5309,8 +5639,14 @@
       <c r="P48" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
@@ -5359,8 +5695,14 @@
       <c r="P49" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -5409,8 +5751,14 @@
       <c r="P50" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q50" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>195</v>
       </c>
@@ -5459,8 +5807,14 @@
       <c r="P51" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>199</v>
       </c>
@@ -5509,8 +5863,14 @@
       <c r="P52" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>203</v>
       </c>
@@ -5559,8 +5919,14 @@
       <c r="P53" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q53" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -5609,8 +5975,14 @@
       <c r="P54" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q54" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
@@ -5659,8 +6031,14 @@
       <c r="P55" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
@@ -5709,8 +6087,14 @@
       <c r="P56" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q56" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>216</v>
       </c>
@@ -5759,8 +6143,14 @@
       <c r="P57" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q57" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
@@ -5809,8 +6199,14 @@
       <c r="P58" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="Q58" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
@@ -5859,8 +6255,11 @@
       <c r="P59" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="Q59" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
@@ -5910,7 +6309,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -5960,7 +6359,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -6010,7 +6409,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>235</v>
       </c>
@@ -6060,7 +6459,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>170</v>
       </c>
@@ -6133,7 +6532,7 @@
         <v>32</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -10982,8 +11381,8 @@
       <c r="H162" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I162" s="2" t="s">
-        <v>535</v>
+      <c r="I162" s="2">
+        <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>17</v>
@@ -11030,7 +11429,7 @@
         <v>100</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I163" s="2">
         <v>1</v>
@@ -11042,7 +11441,7 @@
         <v>25</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M163" s="2">
         <v>4</v>
@@ -11080,7 +11479,7 @@
         <v>22</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I164" s="2">
         <v>1</v>
@@ -11101,15 +11500,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O164" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P164" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="P164" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>41</v>
@@ -11130,7 +11529,7 @@
         <v>22</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I165" s="2">
         <v>0</v>
@@ -11151,10 +11550,10 @@
         <v>250</v>
       </c>
       <c r="O165" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="P165" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="P165" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11180,7 +11579,7 @@
         <v>22</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I166" s="2">
         <v>0</v>
@@ -11201,10 +11600,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O166" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="P166" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11230,7 +11629,7 @@
         <v>22</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I167" s="2">
         <v>0</v>
@@ -11254,7 +11653,7 @@
         <v>308</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11280,7 +11679,7 @@
         <v>22</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I168" s="2">
         <v>0</v>
@@ -11301,10 +11700,10 @@
         <v>0.9375</v>
       </c>
       <c r="O168" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="P168" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="P168" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11330,7 +11729,7 @@
         <v>54</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I169" s="2">
         <v>1</v>
@@ -11351,15 +11750,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O169" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="P169" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="P169" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>41</v>
@@ -11380,7 +11779,7 @@
         <v>32</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I170" s="2">
         <v>1</v>
@@ -11401,10 +11800,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O170" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="P170" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11430,7 +11829,7 @@
         <v>22</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I171" s="2">
         <v>700</v>
@@ -11451,15 +11850,15 @@
         <v>250</v>
       </c>
       <c r="O171" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="P171" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="P171" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>17</v>
@@ -11480,7 +11879,7 @@
         <v>32</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I172" s="2">
         <v>0</v>
@@ -11504,12 +11903,12 @@
         <v>88</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>41</v>
@@ -11530,7 +11929,7 @@
         <v>32</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I173" s="2">
         <v>1</v>
@@ -11554,7 +11953,7 @@
         <v>286</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11580,7 +11979,7 @@
         <v>22</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I174" s="2">
         <v>1</v>
@@ -11630,7 +12029,7 @@
         <v>32</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I175" s="2">
         <v>0</v>
@@ -11642,7 +12041,7 @@
         <v>15</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M175" s="2">
         <v>9</v>
@@ -11651,15 +12050,15 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O175" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="P175" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="P175" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>17</v>
@@ -11680,7 +12079,7 @@
         <v>32</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I176" s="2">
         <v>4</v>
@@ -11692,7 +12091,7 @@
         <v>70</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M176" s="2">
         <v>63</v>
@@ -11701,10 +12100,10 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="O176" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="P176" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="P176" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11730,7 +12129,7 @@
         <v>22</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I177" s="2">
         <v>0</v>
@@ -11751,10 +12150,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O177" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="P177" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="P177" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11780,7 +12179,7 @@
         <v>32</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
@@ -11801,10 +12200,10 @@
         <v>0.9375</v>
       </c>
       <c r="O178" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P178" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="P178" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -11830,7 +12229,7 @@
         <v>22</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
@@ -11859,7 +12258,7 @@
     </row>
     <row r="180" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>17</v>
@@ -11880,7 +12279,7 @@
         <v>22</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I180" s="2">
         <v>2</v>
@@ -11901,15 +12300,15 @@
         <v>0</v>
       </c>
       <c r="O180" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="P180" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>41</v>
@@ -11930,7 +12329,7 @@
         <v>22</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
@@ -11951,15 +12350,15 @@
         <v>0</v>
       </c>
       <c r="O181" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="P181" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="P181" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>41</v>
@@ -11980,7 +12379,7 @@
         <v>32</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I182" s="2">
         <v>0</v>
@@ -12001,15 +12400,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O182" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="P182" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="P182" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>41</v>
@@ -12051,15 +12450,15 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="O183" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="P183" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>41</v>
@@ -12080,7 +12479,7 @@
         <v>22</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I184" s="2">
         <v>0</v>
@@ -12130,7 +12529,7 @@
         <v>22</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I185" s="2">
         <v>0</v>
@@ -12154,7 +12553,7 @@
         <v>308</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12180,7 +12579,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I186" s="2">
         <v>0</v>
@@ -12201,15 +12600,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O186" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="P186" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>41</v>
@@ -12230,7 +12629,7 @@
         <v>32</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I187" s="2">
         <v>0</v>
@@ -12251,7 +12650,7 @@
         <v>0.125</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>24</v>
@@ -12259,7 +12658,7 @@
     </row>
     <row r="188" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>41</v>
@@ -12280,7 +12679,7 @@
         <v>54</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I188" s="2">
         <v>4</v>
@@ -12292,16 +12691,16 @@
         <v>50</v>
       </c>
       <c r="L188" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M188" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="M188" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="N188" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>157</v>
@@ -12309,7 +12708,7 @@
     </row>
     <row r="189" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>41</v>
@@ -12330,7 +12729,7 @@
         <v>22</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I189" s="2">
         <v>2</v>
@@ -12354,7 +12753,7 @@
         <v>88</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12380,7 +12779,7 @@
         <v>22</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I190" s="2">
         <v>0</v>
@@ -12401,10 +12800,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12430,7 +12829,7 @@
         <v>32</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I191" s="2">
         <v>0</v>
@@ -12451,10 +12850,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O191" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="P191" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12480,7 +12879,7 @@
         <v>22</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I192" s="2">
         <v>1</v>
@@ -12501,10 +12900,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O192" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P192" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="P192" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12530,7 +12929,7 @@
         <v>22</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I193" s="2">
         <v>0</v>
@@ -12545,16 +12944,16 @@
         <v>100</v>
       </c>
       <c r="M193" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N193" s="10">
+        <v>0</v>
+      </c>
+      <c r="O193" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="N193" s="10">
-        <v>0</v>
-      </c>
-      <c r="O193" s="2" t="s">
+      <c r="P193" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12580,7 +12979,7 @@
         <v>32</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I194" s="2">
         <v>0</v>
@@ -12604,7 +13003,7 @@
         <v>95</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12630,7 +13029,7 @@
         <v>32</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I195" s="2">
         <v>0</v>
@@ -12642,7 +13041,7 @@
         <v>30</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M195" s="2">
         <v>1</v>
@@ -12651,10 +13050,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O195" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P195" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="P195" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12680,7 +13079,7 @@
         <v>100</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I196" s="2">
         <v>1</v>
@@ -12701,15 +13100,15 @@
         <v>0</v>
       </c>
       <c r="O196" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="P196" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="P196" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>41</v>
@@ -12730,7 +13129,7 @@
         <v>32</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I197" s="2">
         <v>1</v>
@@ -12754,12 +13153,12 @@
         <v>243</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>18</v>
@@ -12780,10 +13179,10 @@
         <v>32</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>17</v>
@@ -12801,10 +13200,10 @@
         <v>0.125</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12830,7 +13229,7 @@
         <v>32</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I199" s="2">
         <v>0</v>
@@ -12851,10 +13250,10 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12880,7 +13279,7 @@
         <v>100</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I200" s="2">
         <v>0</v>
@@ -12901,7 +13300,7 @@
         <v>250</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P200" s="2" t="s">
         <v>391</v>
@@ -12930,7 +13329,7 @@
         <v>22</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I201" s="2">
         <v>1</v>
@@ -12951,10 +13350,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -12980,7 +13379,7 @@
         <v>54</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I202" s="2">
         <v>0</v>
@@ -13001,7 +13400,7 @@
         <v>0.125</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P202" s="2" t="s">
         <v>308</v>
@@ -13009,7 +13408,7 @@
     </row>
     <row r="203" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>41</v>
@@ -13030,7 +13429,7 @@
         <v>54</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I203" s="2">
         <v>0</v>
@@ -13042,7 +13441,7 @@
         <v>75</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M203" s="2">
         <v>454</v>
@@ -13080,7 +13479,7 @@
         <v>54</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I204" s="2">
         <v>0</v>
@@ -13092,7 +13491,7 @@
         <v>65</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M204" s="2">
         <v>4</v>
@@ -13101,10 +13500,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13130,7 +13529,7 @@
         <v>22</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I205" s="2">
         <v>0</v>
@@ -13179,8 +13578,8 @@
       <c r="G206" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H206" s="2">
-        <v>19960629</v>
+      <c r="H206" s="8">
+        <v>35245</v>
       </c>
       <c r="I206" s="2">
         <v>0</v>
@@ -13204,12 +13603,12 @@
         <v>145</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>41</v>
@@ -13230,7 +13629,7 @@
         <v>18</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I207" s="2">
         <v>2</v>
@@ -13254,7 +13653,7 @@
         <v>88</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13280,7 +13679,7 @@
         <v>32</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I208" s="2">
         <v>2</v>
@@ -13304,7 +13703,7 @@
         <v>157</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13330,7 +13729,7 @@
         <v>18</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I209" s="2">
         <v>0</v>
@@ -13342,7 +13741,7 @@
         <v>65</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M209" s="2">
         <v>0</v>
@@ -13354,7 +13753,7 @@
         <v>62</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13380,7 +13779,7 @@
         <v>22</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I210" s="2">
         <v>0</v>
@@ -13401,10 +13800,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13430,7 +13829,7 @@
         <v>22</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I211" s="2">
         <v>0</v>
@@ -13454,7 +13853,7 @@
         <v>24</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13480,7 +13879,7 @@
         <v>22</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I212" s="2">
         <v>0</v>
@@ -13501,7 +13900,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P212" s="2" t="s">
         <v>309</v>
@@ -13530,7 +13929,7 @@
         <v>32</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I213" s="2">
         <v>0</v>
@@ -13551,10 +13950,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13580,7 +13979,7 @@
         <v>32</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I214" s="2">
         <v>1</v>
@@ -13592,7 +13991,7 @@
         <v>47</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M214" s="2">
         <v>3</v>
@@ -13601,10 +14000,10 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13630,7 +14029,7 @@
         <v>22</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I215" s="2">
         <v>0</v>
@@ -13642,7 +14041,7 @@
         <v>86</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M215" s="2">
         <v>952186458.62345898</v>
@@ -13651,15 +14050,15 @@
         <v>0.99513888888888891</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>17</v>
@@ -13680,7 +14079,7 @@
         <v>54</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I216" s="2">
         <v>0</v>
@@ -13692,7 +14091,7 @@
         <v>61</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M216" s="2">
         <v>95</v>
@@ -13701,15 +14100,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>17</v>
@@ -13730,7 +14129,7 @@
         <v>22</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I217" s="2">
         <v>0</v>
@@ -13751,10 +14150,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13780,7 +14179,7 @@
         <v>100</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I218" s="2">
         <v>0</v>
@@ -13801,10 +14200,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13830,7 +14229,7 @@
         <v>100</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I219" s="2">
         <v>0</v>
@@ -13842,7 +14241,7 @@
         <v>15</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M219" s="2">
         <v>5</v>
@@ -13851,7 +14250,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="P219" s="2" t="s">
         <v>469</v>
@@ -13880,7 +14279,7 @@
         <v>32</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I220" s="2">
         <v>0</v>
@@ -13892,7 +14291,7 @@
         <v>10</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M220" s="2">
         <v>7</v>
@@ -13901,10 +14300,10 @@
         <v>0.96875</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -13930,7 +14329,7 @@
         <v>54</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="I221" s="2">
         <v>2</v>
@@ -13951,15 +14350,15 @@
         <v>0</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>17</v>
@@ -13980,7 +14379,7 @@
         <v>32</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I222" s="2">
         <v>0</v>
@@ -14001,10 +14400,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14030,7 +14429,7 @@
         <v>100</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I223" s="2">
         <v>1</v>
@@ -14080,7 +14479,7 @@
         <v>22</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I224" s="2">
         <v>100</v>
@@ -14089,7 +14488,7 @@
         <v>17</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L224" s="2">
         <v>0.5</v>
@@ -14109,7 +14508,7 @@
     </row>
     <row r="225" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>17</v>
@@ -14130,7 +14529,7 @@
         <v>32</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I225" s="2">
         <v>0</v>
@@ -14159,7 +14558,7 @@
     </row>
     <row r="226" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>17</v>
@@ -14180,7 +14579,7 @@
         <v>100</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I226" s="2">
         <v>0</v>
@@ -14201,7 +14600,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>97</v>
@@ -14209,7 +14608,7 @@
     </row>
     <row r="227" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>41</v>
@@ -14230,7 +14629,7 @@
         <v>22</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I227" s="2">
         <v>0</v>
@@ -14251,15 +14650,15 @@
         <v>0</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="P227" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>41</v>
@@ -14280,7 +14679,7 @@
         <v>32</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I228" s="2">
         <v>0</v>
@@ -14301,15 +14700,15 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="P228" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>41</v>
@@ -14330,10 +14729,10 @@
         <v>32</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>18</v>
@@ -14351,10 +14750,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14380,7 +14779,7 @@
         <v>22</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I230" s="2">
         <v>0</v>
@@ -14401,15 +14800,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>41</v>
@@ -14430,7 +14829,7 @@
         <v>32</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
@@ -14459,7 +14858,7 @@
     </row>
     <row r="232" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>41</v>
@@ -14480,7 +14879,7 @@
         <v>32</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I232" s="2">
         <v>1</v>
@@ -14501,10 +14900,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P232" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14530,7 +14929,7 @@
         <v>32</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I233" s="2">
         <v>0</v>
@@ -14551,10 +14950,10 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="P233" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14580,7 +14979,7 @@
         <v>32</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="I234" s="2">
         <v>0</v>
@@ -14592,7 +14991,7 @@
         <v>70</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M234" s="2">
         <v>2</v>
@@ -14601,10 +15000,10 @@
         <v>0</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14630,7 +15029,7 @@
         <v>22</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
@@ -14642,7 +15041,7 @@
         <v>20</v>
       </c>
       <c r="L235" s="2">
-        <v>10</v>
+        <v>1975</v>
       </c>
       <c r="M235" s="2">
         <v>3</v>
@@ -14651,15 +15050,15 @@
         <v>0</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>41</v>
@@ -14704,12 +15103,12 @@
         <v>182</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>41</v>
@@ -14754,7 +15153,7 @@
         <v>178</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14780,7 +15179,7 @@
         <v>32</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
@@ -14801,7 +15200,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>391</v>
@@ -14809,7 +15208,7 @@
     </row>
     <row r="239" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>17</v>
@@ -14830,7 +15229,7 @@
         <v>22</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I239" s="2">
         <v>0</v>
@@ -14851,7 +15250,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>391</v>
@@ -14880,7 +15279,7 @@
         <v>22</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
@@ -14901,10 +15300,10 @@
         <v>9.375E-2</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="P240" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14930,7 +15329,7 @@
         <v>100</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I241" s="2">
         <v>1</v>
@@ -14942,7 +15341,7 @@
         <v>50</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M241" s="2">
         <v>73</v>
@@ -14951,10 +15350,10 @@
         <v>0.125</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -14980,7 +15379,7 @@
         <v>22</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I242" s="2">
         <v>0</v>
@@ -15001,10 +15400,10 @@
         <v>0.88263888888888886</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15030,7 +15429,7 @@
         <v>100</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I243" s="2">
         <v>0</v>
@@ -15051,10 +15450,10 @@
         <v>250</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15080,7 +15479,7 @@
         <v>32</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I244" s="2">
         <v>0</v>
@@ -15104,12 +15503,12 @@
         <v>243</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>41</v>
@@ -15130,7 +15529,7 @@
         <v>22</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I245" s="2">
         <v>2</v>
@@ -15151,7 +15550,7 @@
         <v>0.125</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P245" s="2" t="s">
         <v>157</v>
@@ -15180,7 +15579,7 @@
         <v>22</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I246" s="2">
         <v>0</v>
@@ -15204,12 +15603,12 @@
         <v>300</v>
       </c>
       <c r="P246" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>17</v>
@@ -15230,7 +15629,7 @@
         <v>22</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I247" s="2">
         <v>3</v>
@@ -15259,7 +15658,7 @@
     </row>
     <row r="248" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>41</v>
@@ -15280,7 +15679,7 @@
         <v>22</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I248" s="2">
         <v>0</v>
@@ -15301,15 +15700,15 @@
         <v>0</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="P248" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>41</v>
@@ -15351,10 +15750,10 @@
         <v>0.125</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15401,7 +15800,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>175</v>
@@ -15409,7 +15808,7 @@
     </row>
     <row r="251" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>41</v>
@@ -15430,7 +15829,7 @@
         <v>32</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="I251" s="2">
         <v>0</v>
@@ -15480,7 +15879,7 @@
         <v>22</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I252" s="2">
         <v>0</v>
@@ -15504,7 +15903,7 @@
         <v>465</v>
       </c>
       <c r="P252" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15530,7 +15929,7 @@
         <v>54</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I253" s="2">
         <v>0</v>
@@ -15551,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>182</v>
@@ -15559,7 +15958,7 @@
     </row>
     <row r="254" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>41</v>
@@ -15580,7 +15979,7 @@
         <v>22</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I254" s="2">
         <v>0</v>
@@ -15604,12 +16003,12 @@
         <v>309</v>
       </c>
       <c r="P254" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>41</v>
@@ -15630,7 +16029,7 @@
         <v>22</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I255" s="2">
         <v>0</v>
@@ -15651,10 +16050,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15680,7 +16079,7 @@
         <v>100</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I256" s="2">
         <v>1</v>
@@ -15704,7 +16103,7 @@
         <v>501</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15730,7 +16129,7 @@
         <v>22</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I257" s="2">
         <v>0</v>
@@ -15742,7 +16141,7 @@
         <v>20</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M257" s="2">
         <v>3</v>
@@ -15751,7 +16150,7 @@
         <v>0.96875</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P257" s="2" t="s">
         <v>140</v>
@@ -15759,7 +16158,7 @@
     </row>
     <row r="258" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>17</v>
@@ -15780,7 +16179,7 @@
         <v>32</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I258" s="2">
         <v>0</v>
@@ -15804,12 +16203,12 @@
         <v>243</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>41</v>
@@ -15830,7 +16229,7 @@
         <v>22</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I259" s="2">
         <v>0</v>
@@ -15842,7 +16241,7 @@
         <v>35</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M259" s="2">
         <v>9</v>
@@ -15854,12 +16253,12 @@
         <v>437</v>
       </c>
       <c r="P259" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>41</v>
@@ -15880,7 +16279,7 @@
         <v>32</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I260" s="2">
         <v>2</v>
@@ -15930,7 +16329,7 @@
         <v>22</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I261" s="2">
         <v>3</v>
@@ -15951,10 +16350,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -15980,7 +16379,7 @@
         <v>22</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I262" s="2">
         <v>2</v>
@@ -16001,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>47</v>
@@ -16030,7 +16429,7 @@
         <v>22</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
@@ -16051,10 +16450,10 @@
         <v>250</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16080,7 +16479,7 @@
         <v>22</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I264" s="2">
         <v>6</v>
@@ -16104,7 +16503,7 @@
         <v>61</v>
       </c>
       <c r="P264" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16130,7 +16529,7 @@
         <v>22</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I265" s="2">
         <v>0</v>
@@ -16151,10 +16550,10 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="P265" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16180,7 +16579,7 @@
         <v>32</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I266" s="2">
         <v>1</v>
@@ -16201,10 +16600,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P266" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16230,7 +16629,7 @@
         <v>22</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I267" s="2">
         <v>0</v>
@@ -16251,10 +16650,10 @@
         <v>0</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16301,15 +16700,15 @@
         <v>0</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P268" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>41</v>
@@ -16342,7 +16741,7 @@
         <v>10</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="M269" s="2">
         <v>4</v>
@@ -16351,7 +16750,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>153</v>
@@ -16454,12 +16853,12 @@
         <v>197</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>41</v>
@@ -16480,7 +16879,7 @@
         <v>22</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="I272" s="2">
         <v>4</v>
@@ -16501,10 +16900,10 @@
         <v>250</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="P272" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16530,7 +16929,7 @@
         <v>22</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I273" s="2">
         <v>0</v>
@@ -16554,12 +16953,12 @@
         <v>81</v>
       </c>
       <c r="P273" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>17</v>
@@ -16580,10 +16979,10 @@
         <v>32</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>17</v>
@@ -16601,10 +17000,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16630,7 +17029,7 @@
         <v>22</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I275" s="2">
         <v>5</v>
@@ -16680,10 +17079,10 @@
         <v>22</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
+      </c>
+      <c r="I276" s="2">
+        <v>0</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>41</v>
@@ -16701,15 +17100,15 @@
         <v>250</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="P276" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="277" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>41</v>
@@ -16730,7 +17129,7 @@
         <v>22</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I277" s="2">
         <v>2</v>
@@ -16751,10 +17150,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16780,7 +17179,7 @@
         <v>22</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I278" s="2">
         <v>0</v>
@@ -16801,10 +17200,10 @@
         <v>0.90625</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="P278" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16830,7 +17229,7 @@
         <v>32</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I279" s="2">
         <v>12</v>
@@ -16851,10 +17250,10 @@
         <v>250</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="P279" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16880,7 +17279,7 @@
         <v>32</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I280" s="2">
         <v>1</v>
@@ -16904,7 +17303,7 @@
         <v>81</v>
       </c>
       <c r="P280" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -16930,7 +17329,7 @@
         <v>22</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I281" s="2">
         <v>0</v>
@@ -16954,7 +17353,7 @@
         <v>501</v>
       </c>
       <c r="P281" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment1/data/ODI-2020_cleaned.xlsx
+++ b/Assignment1/data/ODI-2020_cleaned.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annemijndijkhuis/Documents/Computational Science/Data mining techniques/datamining/Assignment1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Computational Science\Data Mining Techniques\assignment_1\Assignment1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C2953-E015-834C-860E-639A9B0FA540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92405932-7E4A-4ED9-A70B-1674F401DEEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODI-2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="861">
   <si>
     <t>What programme are you in?</t>
   </si>
@@ -391,9 +392,6 @@
     <t>14 March</t>
   </si>
   <si>
-    <t>0.21 euro</t>
-  </si>
-  <si>
     <t>Intensive sport training</t>
   </si>
   <si>
@@ -403,9 +401,6 @@
     <t>26/09/1995</t>
   </si>
   <si>
-    <t>0,25 euros</t>
-  </si>
-  <si>
     <t>reaching a certain level of productivity (e.g., reading, doing sports, doing assignments)</t>
   </si>
   <si>
@@ -505,9 +500,6 @@
     <t>01-01-1990</t>
   </si>
   <si>
-    <t>99 euros</t>
-  </si>
-  <si>
     <t>438483848343885591030219481823</t>
   </si>
   <si>
@@ -844,9 +836,6 @@
     <t>03.11.1989</t>
   </si>
   <si>
-    <t>25 euro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sun </t>
   </si>
   <si>
@@ -1180,9 +1169,6 @@
     <t>12.07.1989</t>
   </si>
   <si>
-    <t>1 euro</t>
-  </si>
-  <si>
     <t>Nice People around me</t>
   </si>
   <si>
@@ -1501,9 +1487,6 @@
     <t>14-04-1995</t>
   </si>
   <si>
-    <t>€0,21</t>
-  </si>
-  <si>
     <t>Ajax winning a match</t>
   </si>
   <si>
@@ -1591,9 +1574,6 @@
     <t>24-12-1994</t>
   </si>
   <si>
-    <t>0.20 euro</t>
-  </si>
-  <si>
     <t>lauging</t>
   </si>
   <si>
@@ -1996,9 +1976,6 @@
     <t>March 15</t>
   </si>
   <si>
-    <t xml:space="preserve">1 euro </t>
-  </si>
-  <si>
     <t>nice interactions with people</t>
   </si>
   <si>
@@ -2065,9 +2042,6 @@
     <t>april 8th</t>
   </si>
   <si>
-    <t>0.30 euros</t>
-  </si>
-  <si>
     <t>postive social interactions</t>
   </si>
   <si>
@@ -2305,9 +2279,6 @@
     <t>05-11-1996</t>
   </si>
   <si>
-    <t>10 euros</t>
-  </si>
-  <si>
     <t>When I had a good night's sleep</t>
   </si>
   <si>
@@ -2630,6 +2601,9 @@
   </si>
   <si>
     <t>family</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -2904,28 +2878,28 @@
   </sheetPr>
   <dimension ref="A1:AD281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="35.1640625" customWidth="1"/>
+    <col min="6" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="35.109375" customWidth="1"/>
     <col min="15" max="15" width="64.6640625" customWidth="1"/>
-    <col min="16" max="16" width="35.1640625" customWidth="1"/>
-    <col min="17" max="22" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" customWidth="1"/>
+    <col min="17" max="22" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3025,13 +2999,13 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3081,43 +3055,43 @@
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="U3" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="V3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="W3" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="X3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="Y3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="Z3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AA3" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AB3" t="s">
         <v>82</v>
       </c>
       <c r="AC3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="AD3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -3167,16 +3141,16 @@
         <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -3226,16 +3200,16 @@
         <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3285,16 +3259,16 @@
         <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -3344,13 +3318,13 @@
         <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -3400,13 +3374,13 @@
         <v>52</v>
       </c>
       <c r="Q8" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3459,10 +3433,10 @@
         <v>82</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -3512,13 +3486,13 @@
         <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -3568,13 +3542,13 @@
         <v>68</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -3624,13 +3598,13 @@
         <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3680,13 +3654,13 @@
         <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3736,13 +3710,13 @@
         <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -3792,13 +3766,13 @@
         <v>82</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -3848,13 +3822,13 @@
         <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -3904,13 +3878,13 @@
         <v>89</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -3963,10 +3937,10 @@
         <v>82</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
@@ -4016,13 +3990,13 @@
         <v>95</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
@@ -4045,7 +4019,7 @@
         <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -4072,13 +4046,13 @@
         <v>98</v>
       </c>
       <c r="Q20" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>99</v>
       </c>
@@ -4128,13 +4102,13 @@
         <v>103</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
@@ -4184,13 +4158,13 @@
         <v>107</v>
       </c>
       <c r="Q22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -4240,13 +4214,13 @@
         <v>111</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -4296,13 +4270,13 @@
         <v>114</v>
       </c>
       <c r="Q24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -4352,13 +4326,13 @@
         <v>117</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -4408,13 +4382,13 @@
         <v>121</v>
       </c>
       <c r="Q26" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4448,8 +4422,8 @@
       <c r="K27" s="2">
         <v>35</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>123</v>
+      <c r="L27" s="2">
+        <v>0.21</v>
       </c>
       <c r="M27" s="2">
         <v>7</v>
@@ -4461,18 +4435,18 @@
         <v>24</v>
       </c>
       <c r="P27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -4493,7 +4467,7 @@
         <v>32</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -4504,8 +4478,8 @@
       <c r="K28" s="2">
         <v>10</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>127</v>
+      <c r="L28" s="2">
+        <v>0.25</v>
       </c>
       <c r="M28" s="2">
         <v>98</v>
@@ -4514,21 +4488,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
@@ -4549,7 +4523,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -4570,21 +4544,21 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -4605,7 +4579,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -4626,21 +4600,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
@@ -4661,7 +4635,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4685,16 +4659,16 @@
         <v>95</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -4717,7 +4691,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4735,24 +4709,24 @@
         <v>78</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
@@ -4773,7 +4747,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4797,16 +4771,16 @@
         <v>95</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -4829,7 +4803,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4850,21 +4824,21 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>41</v>
@@ -4885,7 +4859,7 @@
         <v>22</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -4897,28 +4871,28 @@
         <v>60</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M35" s="2">
         <v>2</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -4941,7 +4915,7 @@
         <v>100</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
@@ -4962,21 +4936,21 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -4997,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -5009,7 +4983,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M37" s="2">
         <v>10</v>
@@ -5018,21 +4992,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
@@ -5053,7 +5027,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -5064,11 +5038,11 @@
       <c r="K38" s="2">
         <v>99</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>161</v>
+      <c r="L38" s="2">
+        <v>99</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N38" s="9">
         <v>4.1666666666666664E-2</v>
@@ -5077,16 +5051,16 @@
         <v>47</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -5109,7 +5083,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -5130,19 +5104,19 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -5165,7 +5139,7 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -5192,13 +5166,13 @@
         <v>61</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -5221,7 +5195,7 @@
         <v>32</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -5242,21 +5216,21 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -5277,7 +5251,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -5298,19 +5272,19 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -5333,7 +5307,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -5354,21 +5328,21 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
@@ -5389,7 +5363,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -5410,19 +5384,19 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
@@ -5445,7 +5419,7 @@
         <v>22</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
@@ -5457,7 +5431,7 @@
         <v>60</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M45" s="2">
         <v>6</v>
@@ -5466,19 +5440,19 @@
         <v>0.125</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -5501,7 +5475,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -5525,16 +5499,16 @@
         <v>95</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
@@ -5557,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -5578,19 +5552,19 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -5613,7 +5587,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -5640,13 +5614,13 @@
         <v>61</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
@@ -5669,7 +5643,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -5690,19 +5664,19 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -5725,7 +5699,7 @@
         <v>32</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
@@ -5746,21 +5720,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>41</v>
@@ -5781,7 +5755,7 @@
         <v>22</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I51" s="2">
         <v>3</v>
@@ -5802,21 +5776,21 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>41</v>
@@ -5837,7 +5811,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -5858,21 +5832,21 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>41</v>
@@ -5893,7 +5867,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
@@ -5914,19 +5888,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -5949,7 +5923,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
@@ -5970,21 +5944,21 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
@@ -6005,7 +5979,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -6026,19 +6000,19 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>82</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
@@ -6061,7 +6035,7 @@
         <v>100</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I56" s="2">
         <v>2</v>
@@ -6082,21 +6056,21 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -6117,7 +6091,7 @@
         <v>32</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -6128,8 +6102,8 @@
       <c r="K57" s="2">
         <v>60</v>
       </c>
-      <c r="L57" s="4">
-        <v>0.1</v>
+      <c r="L57" s="4" t="s">
+        <v>860</v>
       </c>
       <c r="M57" s="2">
         <v>3</v>
@@ -6138,19 +6112,19 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
@@ -6173,7 +6147,7 @@
         <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
@@ -6194,19 +6168,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
@@ -6229,7 +6203,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -6241,7 +6215,7 @@
         <v>50</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
@@ -6253,15 +6227,15 @@
         <v>88</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
@@ -6282,7 +6256,7 @@
         <v>22</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I60" s="2">
         <v>1</v>
@@ -6303,13 +6277,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -6332,7 +6306,7 @@
         <v>54</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -6353,13 +6327,13 @@
         <v>0.25</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -6382,7 +6356,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
@@ -6403,15 +6377,15 @@
         <v>0</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>41</v>
@@ -6432,7 +6406,7 @@
         <v>32</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -6444,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M63" s="2">
         <v>7</v>
@@ -6453,15 +6427,15 @@
         <v>3.125E-2</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>41</v>
@@ -6482,7 +6456,7 @@
         <v>32</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
@@ -6503,13 +6477,13 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -6532,7 +6506,7 @@
         <v>32</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -6553,15 +6527,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>41</v>
@@ -6582,7 +6556,7 @@
         <v>22</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I66" s="2">
         <v>4</v>
@@ -6603,15 +6577,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>41</v>
@@ -6647,21 +6621,21 @@
         <v>-2147483648</v>
       </c>
       <c r="M67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>41</v>
@@ -6682,7 +6656,7 @@
         <v>32</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
@@ -6703,15 +6677,15 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>41</v>
@@ -6732,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
@@ -6756,10 +6730,10 @@
         <v>82</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -6782,7 +6756,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
@@ -6803,15 +6777,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -6832,7 +6806,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -6853,15 +6827,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>41</v>
@@ -6882,7 +6856,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
@@ -6903,13 +6877,13 @@
         <v>0.9375</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -6932,7 +6906,7 @@
         <v>32</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I73" s="2">
         <v>2</v>
@@ -6953,15 +6927,15 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>41</v>
@@ -6982,7 +6956,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
@@ -6993,8 +6967,8 @@
       <c r="K74" s="2">
         <v>60</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>274</v>
+      <c r="L74" s="2">
+        <v>25</v>
       </c>
       <c r="M74" s="2">
         <v>3</v>
@@ -7003,15 +6977,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
@@ -7032,7 +7006,7 @@
         <v>54</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -7050,18 +7024,18 @@
         <v>10</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>41</v>
@@ -7082,7 +7056,7 @@
         <v>22</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
@@ -7103,15 +7077,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>41</v>
@@ -7132,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
@@ -7156,12 +7130,12 @@
         <v>47</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>41</v>
@@ -7182,7 +7156,7 @@
         <v>22</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
@@ -7206,10 +7180,10 @@
         <v>97</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
@@ -7232,7 +7206,7 @@
         <v>100</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
@@ -7253,15 +7227,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>17</v>
@@ -7282,7 +7256,7 @@
         <v>32</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
@@ -7303,13 +7277,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>73</v>
       </c>
@@ -7332,7 +7306,7 @@
         <v>32</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I81" s="2">
         <v>1</v>
@@ -7347,21 +7321,21 @@
         <v>1</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>17</v>
@@ -7382,7 +7356,7 @@
         <v>22</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
@@ -7403,13 +7377,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -7432,7 +7406,7 @@
         <v>32</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
@@ -7453,15 +7427,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>41</v>
@@ -7482,7 +7456,7 @@
         <v>32</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I84" s="2">
         <v>7</v>
@@ -7503,13 +7477,13 @@
         <v>0.17013888888888887</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -7532,7 +7506,7 @@
         <v>32</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
@@ -7553,15 +7527,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>17</v>
@@ -7582,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
@@ -7603,15 +7577,15 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>17</v>
@@ -7632,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I87" s="2">
         <v>3</v>
@@ -7653,13 +7627,13 @@
         <v>0</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>40</v>
       </c>
@@ -7682,7 +7656,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I88" s="2">
         <v>1</v>
@@ -7703,15 +7677,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>41</v>
@@ -7732,7 +7706,7 @@
         <v>22</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
@@ -7753,15 +7727,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>17</v>
@@ -7782,7 +7756,7 @@
         <v>22</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
@@ -7809,7 +7783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>45</v>
       </c>
@@ -7832,7 +7806,7 @@
         <v>100</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I91" s="2">
         <v>5</v>
@@ -7853,13 +7827,13 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>40</v>
       </c>
@@ -7882,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
@@ -7894,7 +7868,7 @@
         <v>70</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M92" s="2">
         <v>3</v>
@@ -7903,13 +7877,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -7932,7 +7906,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
@@ -7953,13 +7927,13 @@
         <v>0.9375</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -7982,7 +7956,7 @@
         <v>22</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I94" s="2">
         <v>2</v>
@@ -8003,15 +7977,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>17</v>
@@ -8032,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -8044,24 +8018,24 @@
         <v>10</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M95" s="2">
         <v>23</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>18</v>
@@ -8082,7 +8056,7 @@
         <v>54</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -8100,18 +8074,18 @@
         <v>78</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>41</v>
@@ -8132,7 +8106,7 @@
         <v>22</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -8153,15 +8127,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>17</v>
@@ -8182,7 +8156,7 @@
         <v>22</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -8203,15 +8177,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>41</v>
@@ -8232,7 +8206,7 @@
         <v>32</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I99" s="2">
         <v>4</v>
@@ -8250,15 +8224,15 @@
         <v>7</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>17</v>
@@ -8279,7 +8253,7 @@
         <v>54</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I100" s="2">
         <v>1</v>
@@ -8300,13 +8274,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -8329,7 +8303,7 @@
         <v>32</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I101" s="2">
         <v>1</v>
@@ -8356,9 +8330,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>17</v>
@@ -8400,15 +8374,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>17</v>
@@ -8429,7 +8403,7 @@
         <v>54</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -8450,13 +8424,13 @@
         <v>0</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
@@ -8479,7 +8453,7 @@
         <v>32</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
@@ -8497,16 +8471,16 @@
         <v>17101991</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>73</v>
       </c>
@@ -8529,7 +8503,7 @@
         <v>54</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I105" s="2">
         <v>2</v>
@@ -8550,13 +8524,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -8579,7 +8553,7 @@
         <v>32</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -8600,13 +8574,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>99</v>
       </c>
@@ -8629,7 +8603,7 @@
         <v>32</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I107" s="2">
         <v>3</v>
@@ -8650,15 +8624,15 @@
         <v>0.125</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>41</v>
@@ -8679,7 +8653,7 @@
         <v>22</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
@@ -8703,12 +8677,12 @@
         <v>62</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>17</v>
@@ -8729,7 +8703,7 @@
         <v>22</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I109" s="2">
         <v>4</v>
@@ -8750,15 +8724,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>41</v>
@@ -8779,7 +8753,7 @@
         <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
@@ -8791,7 +8765,7 @@
         <v>20</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M110" s="2">
         <v>37</v>
@@ -8800,15 +8774,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>17</v>
@@ -8829,7 +8803,7 @@
         <v>22</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I111" s="2">
         <v>0</v>
@@ -8853,12 +8827,12 @@
         <v>24</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>17</v>
@@ -8879,7 +8853,7 @@
         <v>32</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I112" s="2">
         <v>1</v>
@@ -8900,15 +8874,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>41</v>
@@ -8929,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
@@ -8940,8 +8914,8 @@
       <c r="K113" s="2">
         <v>65</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>386</v>
+      <c r="L113" s="2">
+        <v>1</v>
       </c>
       <c r="M113" s="2">
         <v>42</v>
@@ -8953,10 +8927,10 @@
         <v>72</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>69</v>
       </c>
@@ -8979,7 +8953,7 @@
         <v>32</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I114" s="2">
         <v>1</v>
@@ -9000,13 +8974,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>99</v>
       </c>
@@ -9029,7 +9003,7 @@
         <v>32</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I115" s="2">
         <v>0</v>
@@ -9053,12 +9027,12 @@
         <v>88</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>41</v>
@@ -9079,7 +9053,7 @@
         <v>54</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I116" s="2">
         <v>1</v>
@@ -9100,13 +9074,13 @@
         <v>0</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>45</v>
       </c>
@@ -9129,7 +9103,7 @@
         <v>32</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
@@ -9150,13 +9124,13 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>40</v>
       </c>
@@ -9179,7 +9153,7 @@
         <v>32</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -9200,15 +9174,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>17</v>
@@ -9229,7 +9203,7 @@
         <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I119" s="2">
         <v>0</v>
@@ -9250,13 +9224,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>40</v>
       </c>
@@ -9279,7 +9253,7 @@
         <v>22</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
@@ -9300,13 +9274,13 @@
         <v>0</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -9329,7 +9303,7 @@
         <v>32</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
@@ -9341,7 +9315,7 @@
         <v>60</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M121" s="2">
         <v>12345</v>
@@ -9350,15 +9324,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>17</v>
@@ -9379,7 +9353,7 @@
         <v>22</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I122" s="2">
         <v>0</v>
@@ -9394,19 +9368,19 @@
         <v>20</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="N122" s="9">
         <v>0.98958333333333337</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>99</v>
       </c>
@@ -9429,7 +9403,7 @@
         <v>22</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I123" s="2">
         <v>1</v>
@@ -9441,7 +9415,7 @@
         <v>60</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M123" s="2">
         <v>7</v>
@@ -9450,15 +9424,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>17</v>
@@ -9479,7 +9453,7 @@
         <v>32</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
@@ -9500,15 +9474,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>17</v>
@@ -9529,7 +9503,7 @@
         <v>32</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I125" s="2">
         <v>1</v>
@@ -9550,13 +9524,13 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>99</v>
       </c>
@@ -9579,7 +9553,7 @@
         <v>22</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
@@ -9600,15 +9574,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>41</v>
@@ -9629,7 +9603,7 @@
         <v>32</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I127" s="2">
         <v>2</v>
@@ -9641,7 +9615,7 @@
         <v>0.5</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M127" s="2">
         <v>7.6</v>
@@ -9650,15 +9624,15 @@
         <v>3.125E-2</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>17</v>
@@ -9679,7 +9653,7 @@
         <v>32</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
@@ -9700,15 +9674,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>41</v>
@@ -9729,7 +9703,7 @@
         <v>22</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
@@ -9753,12 +9727,12 @@
         <v>88</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>41</v>
@@ -9779,7 +9753,7 @@
         <v>32</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I130" s="2">
         <v>0</v>
@@ -9800,15 +9774,15 @@
         <v>0.9375</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>17</v>
@@ -9829,7 +9803,7 @@
         <v>32</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
@@ -9847,16 +9821,16 @@
         <v>141100267</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>99</v>
       </c>
@@ -9879,7 +9853,7 @@
         <v>32</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
@@ -9900,13 +9874,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -9929,7 +9903,7 @@
         <v>32</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
@@ -9953,10 +9927,10 @@
         <v>62</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>40</v>
       </c>
@@ -9979,7 +9953,7 @@
         <v>22</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I134" s="2">
         <v>1</v>
@@ -10000,15 +9974,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>41</v>
@@ -10029,7 +10003,7 @@
         <v>32</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
@@ -10041,7 +10015,7 @@
         <v>50</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M135" s="2">
         <v>8</v>
@@ -10050,15 +10024,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>41</v>
@@ -10079,7 +10053,7 @@
         <v>32</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I136" s="2">
         <v>0</v>
@@ -10091,7 +10065,7 @@
         <v>75</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M136" s="2">
         <v>72</v>
@@ -10100,15 +10074,15 @@
         <v>0</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>41</v>
@@ -10129,7 +10103,7 @@
         <v>32</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
@@ -10150,13 +10124,13 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
@@ -10179,7 +10153,7 @@
         <v>22</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
@@ -10200,13 +10174,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>99</v>
       </c>
@@ -10229,7 +10203,7 @@
         <v>32</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I139" s="2">
         <v>1</v>
@@ -10250,15 +10224,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>41</v>
@@ -10279,7 +10253,7 @@
         <v>32</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I140" s="2">
         <v>1</v>
@@ -10303,10 +10277,10 @@
         <v>47</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>40</v>
       </c>
@@ -10329,7 +10303,7 @@
         <v>32</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I141" s="2">
         <v>1</v>
@@ -10350,13 +10324,13 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -10379,7 +10353,7 @@
         <v>32</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I142" s="2">
         <v>0</v>
@@ -10400,15 +10374,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>41</v>
@@ -10429,7 +10403,7 @@
         <v>32</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I143" s="2">
         <v>0</v>
@@ -10450,15 +10424,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>17</v>
@@ -10500,15 +10474,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>41</v>
@@ -10529,7 +10503,7 @@
         <v>32</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I145" s="2">
         <v>16</v>
@@ -10550,15 +10524,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>41</v>
@@ -10579,7 +10553,7 @@
         <v>22</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
@@ -10600,15 +10574,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>41</v>
@@ -10629,7 +10603,7 @@
         <v>22</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I147" s="2">
         <v>1</v>
@@ -10650,13 +10624,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>40</v>
       </c>
@@ -10679,7 +10653,7 @@
         <v>22</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I148" s="2">
         <v>2</v>
@@ -10700,15 +10674,15 @@
         <v>0.9375</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>41</v>
@@ -10729,7 +10703,7 @@
         <v>22</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
@@ -10740,8 +10714,8 @@
       <c r="K149" s="2">
         <v>55</v>
       </c>
-      <c r="L149" s="2" t="s">
-        <v>493</v>
+      <c r="L149" s="2">
+        <v>0.21</v>
       </c>
       <c r="M149" s="2">
         <v>5</v>
@@ -10750,15 +10724,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>41</v>
@@ -10779,7 +10753,7 @@
         <v>32</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I150" s="2">
         <v>0</v>
@@ -10800,15 +10774,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>41</v>
@@ -10829,7 +10803,7 @@
         <v>32</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I151" s="2">
         <v>0</v>
@@ -10850,15 +10824,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>41</v>
@@ -10879,7 +10853,7 @@
         <v>54</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I152" s="2">
         <v>1</v>
@@ -10891,7 +10865,7 @@
         <v>68</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M152" s="2">
         <v>8</v>
@@ -10900,15 +10874,15 @@
         <v>0</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>41</v>
@@ -10929,7 +10903,7 @@
         <v>54</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I153" s="2">
         <v>1</v>
@@ -10941,7 +10915,7 @@
         <v>75</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M153" s="2">
         <v>5</v>
@@ -10950,13 +10924,13 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>40</v>
       </c>
@@ -10979,7 +10953,7 @@
         <v>32</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I154" s="2">
         <v>0</v>
@@ -10991,7 +10965,7 @@
         <v>30</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M154" s="2">
         <v>7</v>
@@ -11000,13 +10974,13 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>99</v>
       </c>
@@ -11029,7 +11003,7 @@
         <v>22</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I155" s="2">
         <v>1</v>
@@ -11050,15 +11024,15 @@
         <v>0</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>41</v>
@@ -11100,15 +11074,15 @@
         <v>0</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>41</v>
@@ -11150,15 +11124,15 @@
         <v>0.25</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>17</v>
@@ -11179,7 +11153,7 @@
         <v>32</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I158" s="2">
         <v>0</v>
@@ -11190,8 +11164,8 @@
       <c r="K158" s="2">
         <v>60</v>
       </c>
-      <c r="L158" s="2" t="s">
-        <v>523</v>
+      <c r="L158" s="2">
+        <v>0.2</v>
       </c>
       <c r="M158" s="2">
         <v>6</v>
@@ -11200,15 +11174,15 @@
         <v>0.93819444444444444</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>41</v>
@@ -11229,7 +11203,7 @@
         <v>22</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I159" s="2">
         <v>0</v>
@@ -11250,13 +11224,13 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -11279,7 +11253,7 @@
         <v>32</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="I160" s="2">
         <v>0</v>
@@ -11300,15 +11274,15 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>41</v>
@@ -11329,7 +11303,7 @@
         <v>32</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I161" s="2">
         <v>1</v>
@@ -11341,7 +11315,7 @@
         <v>23</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M161" s="2">
         <v>1.6180000000000001</v>
@@ -11350,15 +11324,15 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>17</v>
@@ -11379,7 +11353,7 @@
         <v>22</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I162" s="2">
         <v>0</v>
@@ -11403,10 +11377,10 @@
         <v>47</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>45</v>
       </c>
@@ -11429,7 +11403,7 @@
         <v>100</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I163" s="2">
         <v>1</v>
@@ -11441,7 +11415,7 @@
         <v>25</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M163" s="2">
         <v>4</v>
@@ -11456,7 +11430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -11479,7 +11453,7 @@
         <v>22</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="I164" s="2">
         <v>1</v>
@@ -11500,15 +11474,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>41</v>
@@ -11529,7 +11503,7 @@
         <v>22</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I165" s="2">
         <v>0</v>
@@ -11547,18 +11521,18 @@
         <v>69</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>17</v>
@@ -11579,7 +11553,7 @@
         <v>22</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="I166" s="2">
         <v>0</v>
@@ -11600,15 +11574,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>41</v>
@@ -11629,7 +11603,7 @@
         <v>22</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I167" s="2">
         <v>0</v>
@@ -11650,15 +11624,15 @@
         <v>0</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>41</v>
@@ -11679,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I168" s="2">
         <v>0</v>
@@ -11700,15 +11674,15 @@
         <v>0.9375</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>17</v>
@@ -11729,7 +11703,7 @@
         <v>54</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I169" s="2">
         <v>1</v>
@@ -11750,15 +11724,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>41</v>
@@ -11779,7 +11753,7 @@
         <v>32</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I170" s="2">
         <v>1</v>
@@ -11800,13 +11774,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
@@ -11829,7 +11803,7 @@
         <v>22</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I171" s="2">
         <v>700</v>
@@ -11847,18 +11821,18 @@
         <v>4</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>17</v>
@@ -11879,7 +11853,7 @@
         <v>32</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I172" s="2">
         <v>0</v>
@@ -11903,12 +11877,12 @@
         <v>88</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>41</v>
@@ -11929,7 +11903,7 @@
         <v>32</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I173" s="2">
         <v>1</v>
@@ -11950,13 +11924,13 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>73</v>
       </c>
@@ -11979,7 +11953,7 @@
         <v>22</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I174" s="2">
         <v>1</v>
@@ -12000,15 +11974,15 @@
         <v>0.9375</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>41</v>
@@ -12029,7 +12003,7 @@
         <v>32</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I175" s="2">
         <v>0</v>
@@ -12041,7 +12015,7 @@
         <v>15</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M175" s="2">
         <v>9</v>
@@ -12050,15 +12024,15 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>17</v>
@@ -12079,7 +12053,7 @@
         <v>32</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="I176" s="2">
         <v>4</v>
@@ -12091,7 +12065,7 @@
         <v>70</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M176" s="2">
         <v>63</v>
@@ -12100,15 +12074,15 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>41</v>
@@ -12129,7 +12103,7 @@
         <v>22</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I177" s="2">
         <v>0</v>
@@ -12150,15 +12124,15 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>41</v>
@@ -12179,7 +12153,7 @@
         <v>32</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
@@ -12200,15 +12174,15 @@
         <v>0.9375</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>41</v>
@@ -12229,7 +12203,7 @@
         <v>22</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
@@ -12256,9 +12230,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>17</v>
@@ -12279,7 +12253,7 @@
         <v>22</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I180" s="2">
         <v>2</v>
@@ -12300,15 +12274,15 @@
         <v>0</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>41</v>
@@ -12329,7 +12303,7 @@
         <v>22</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
@@ -12350,15 +12324,15 @@
         <v>0</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>41</v>
@@ -12379,7 +12353,7 @@
         <v>32</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I182" s="2">
         <v>0</v>
@@ -12400,15 +12374,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>41</v>
@@ -12450,15 +12424,15 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>41</v>
@@ -12479,7 +12453,7 @@
         <v>22</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="I184" s="2">
         <v>0</v>
@@ -12506,7 +12480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -12529,7 +12503,7 @@
         <v>22</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="I185" s="2">
         <v>0</v>
@@ -12550,13 +12524,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>40</v>
       </c>
@@ -12579,7 +12553,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="I186" s="2">
         <v>0</v>
@@ -12600,15 +12574,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>41</v>
@@ -12629,7 +12603,7 @@
         <v>32</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="I187" s="2">
         <v>0</v>
@@ -12650,15 +12624,15 @@
         <v>0.125</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>41</v>
@@ -12679,7 +12653,7 @@
         <v>54</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="I188" s="2">
         <v>4</v>
@@ -12691,24 +12665,24 @@
         <v>50</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="N188" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>41</v>
@@ -12729,7 +12703,7 @@
         <v>22</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="I189" s="2">
         <v>2</v>
@@ -12753,10 +12727,10 @@
         <v>88</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>31</v>
       </c>
@@ -12779,7 +12753,7 @@
         <v>22</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I190" s="2">
         <v>0</v>
@@ -12800,13 +12774,13 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -12829,7 +12803,7 @@
         <v>32</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="I191" s="2">
         <v>0</v>
@@ -12850,13 +12824,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>40</v>
       </c>
@@ -12879,7 +12853,7 @@
         <v>22</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="I192" s="2">
         <v>1</v>
@@ -12891,7 +12865,7 @@
         <v>80</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M192" s="2">
         <v>57</v>
@@ -12900,13 +12874,13 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>73</v>
       </c>
@@ -12929,7 +12903,7 @@
         <v>22</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="I193" s="2">
         <v>0</v>
@@ -12944,21 +12918,21 @@
         <v>100</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="N193" s="10">
         <v>0</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>41</v>
@@ -12979,7 +12953,7 @@
         <v>32</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I194" s="2">
         <v>0</v>
@@ -13003,12 +12977,12 @@
         <v>95</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>41</v>
@@ -13029,7 +13003,7 @@
         <v>32</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="I195" s="2">
         <v>0</v>
@@ -13041,7 +13015,7 @@
         <v>30</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M195" s="2">
         <v>1</v>
@@ -13050,13 +13024,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>16</v>
       </c>
@@ -13079,7 +13053,7 @@
         <v>100</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="I196" s="2">
         <v>1</v>
@@ -13100,15 +13074,15 @@
         <v>0</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>41</v>
@@ -13129,7 +13103,7 @@
         <v>32</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="I197" s="2">
         <v>1</v>
@@ -13150,15 +13124,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>18</v>
@@ -13179,7 +13153,7 @@
         <v>32</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="I198" s="2">
         <v>0</v>
@@ -13200,13 +13174,13 @@
         <v>0.125</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>99</v>
       </c>
@@ -13229,7 +13203,7 @@
         <v>32</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="I199" s="2">
         <v>0</v>
@@ -13250,15 +13224,15 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>41</v>
@@ -13279,7 +13253,7 @@
         <v>100</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="I200" s="2">
         <v>0</v>
@@ -13297,18 +13271,18 @@
         <v>3</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>17</v>
@@ -13329,7 +13303,7 @@
         <v>22</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="I201" s="2">
         <v>1</v>
@@ -13350,15 +13324,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>41</v>
@@ -13379,7 +13353,7 @@
         <v>54</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="I202" s="2">
         <v>0</v>
@@ -13400,15 +13374,15 @@
         <v>0.125</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>41</v>
@@ -13429,7 +13403,7 @@
         <v>54</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I203" s="2">
         <v>0</v>
@@ -13441,7 +13415,7 @@
         <v>75</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="M203" s="2">
         <v>454</v>
@@ -13450,15 +13424,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>41</v>
@@ -13479,7 +13453,7 @@
         <v>54</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="I204" s="2">
         <v>0</v>
@@ -13490,8 +13464,8 @@
       <c r="K204" s="2">
         <v>65</v>
       </c>
-      <c r="L204" s="2" t="s">
-        <v>658</v>
+      <c r="L204" s="2">
+        <v>1</v>
       </c>
       <c r="M204" s="2">
         <v>4</v>
@@ -13500,13 +13474,13 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>69</v>
       </c>
@@ -13529,7 +13503,7 @@
         <v>22</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I205" s="2">
         <v>0</v>
@@ -13550,13 +13524,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>99</v>
       </c>
@@ -13600,15 +13574,15 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>41</v>
@@ -13629,7 +13603,7 @@
         <v>18</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="I207" s="2">
         <v>2</v>
@@ -13653,10 +13627,10 @@
         <v>88</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>73</v>
       </c>
@@ -13679,7 +13653,7 @@
         <v>32</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="I208" s="2">
         <v>2</v>
@@ -13700,13 +13674,13 @@
         <v>0.125</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>99</v>
       </c>
@@ -13729,7 +13703,7 @@
         <v>18</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="I209" s="2">
         <v>0</v>
@@ -13741,7 +13715,7 @@
         <v>65</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="M209" s="2">
         <v>0</v>
@@ -13753,12 +13727,12 @@
         <v>62</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>41</v>
@@ -13779,7 +13753,7 @@
         <v>22</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="I210" s="2">
         <v>0</v>
@@ -13800,13 +13774,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>99</v>
       </c>
@@ -13829,7 +13803,7 @@
         <v>22</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="I211" s="2">
         <v>0</v>
@@ -13853,10 +13827,10 @@
         <v>24</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>31</v>
       </c>
@@ -13879,7 +13853,7 @@
         <v>22</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I212" s="2">
         <v>0</v>
@@ -13900,15 +13874,15 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>17</v>
@@ -13929,7 +13903,7 @@
         <v>32</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I213" s="2">
         <v>0</v>
@@ -13950,13 +13924,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>99</v>
       </c>
@@ -13979,7 +13953,7 @@
         <v>32</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I214" s="2">
         <v>1</v>
@@ -13990,8 +13964,8 @@
       <c r="K214" s="2">
         <v>47</v>
       </c>
-      <c r="L214" s="2" t="s">
-        <v>681</v>
+      <c r="L214" s="2">
+        <v>0.3</v>
       </c>
       <c r="M214" s="2">
         <v>3</v>
@@ -14000,15 +13974,15 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>17</v>
@@ -14029,7 +14003,7 @@
         <v>22</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="I215" s="2">
         <v>0</v>
@@ -14041,7 +14015,7 @@
         <v>86</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M215" s="2">
         <v>952186458.62345898</v>
@@ -14050,15 +14024,15 @@
         <v>0.99513888888888891</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>17</v>
@@ -14079,7 +14053,7 @@
         <v>54</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="I216" s="2">
         <v>0</v>
@@ -14091,7 +14065,7 @@
         <v>61</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="M216" s="2">
         <v>95</v>
@@ -14100,15 +14074,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>17</v>
@@ -14129,7 +14103,7 @@
         <v>22</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="I217" s="2">
         <v>0</v>
@@ -14150,15 +14124,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>41</v>
@@ -14179,7 +14153,7 @@
         <v>100</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="I218" s="2">
         <v>0</v>
@@ -14200,13 +14174,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>16</v>
       </c>
@@ -14229,7 +14203,7 @@
         <v>100</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="I219" s="2">
         <v>0</v>
@@ -14241,7 +14215,7 @@
         <v>15</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="M219" s="2">
         <v>5</v>
@@ -14250,13 +14224,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="P219" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>104</v>
       </c>
@@ -14279,7 +14253,7 @@
         <v>32</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="I220" s="2">
         <v>0</v>
@@ -14291,7 +14265,7 @@
         <v>10</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="M220" s="2">
         <v>7</v>
@@ -14300,15 +14274,15 @@
         <v>0.96875</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>41</v>
@@ -14329,7 +14303,7 @@
         <v>54</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="I221" s="2">
         <v>2</v>
@@ -14350,15 +14324,15 @@
         <v>0</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>17</v>
@@ -14379,7 +14353,7 @@
         <v>32</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="I222" s="2">
         <v>0</v>
@@ -14400,13 +14374,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>16</v>
       </c>
@@ -14429,7 +14403,7 @@
         <v>100</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="I223" s="2">
         <v>1</v>
@@ -14450,15 +14424,15 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P223" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>41</v>
@@ -14479,7 +14453,7 @@
         <v>22</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I224" s="2">
         <v>100</v>
@@ -14488,7 +14462,7 @@
         <v>17</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="L224" s="2">
         <v>0.5</v>
@@ -14506,9 +14480,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>17</v>
@@ -14529,7 +14503,7 @@
         <v>32</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I225" s="2">
         <v>0</v>
@@ -14547,7 +14521,7 @@
         <v>3</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O225" s="2" t="s">
         <v>82</v>
@@ -14556,9 +14530,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>17</v>
@@ -14579,7 +14553,7 @@
         <v>100</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="I226" s="2">
         <v>0</v>
@@ -14600,15 +14574,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>41</v>
@@ -14629,7 +14603,7 @@
         <v>22</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="I227" s="2">
         <v>0</v>
@@ -14650,15 +14624,15 @@
         <v>0</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="P227" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>41</v>
@@ -14679,7 +14653,7 @@
         <v>32</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="I228" s="2">
         <v>0</v>
@@ -14700,15 +14674,15 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="P228" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>41</v>
@@ -14729,7 +14703,7 @@
         <v>32</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="I229" s="2">
         <v>0</v>
@@ -14750,13 +14724,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
@@ -14779,7 +14753,7 @@
         <v>22</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="I230" s="2">
         <v>0</v>
@@ -14800,15 +14774,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>41</v>
@@ -14829,7 +14803,7 @@
         <v>32</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
@@ -14853,12 +14827,12 @@
         <v>117</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>41</v>
@@ -14879,7 +14853,7 @@
         <v>32</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="I232" s="2">
         <v>1</v>
@@ -14900,15 +14874,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="P232" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>17</v>
@@ -14929,7 +14903,7 @@
         <v>32</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="I233" s="2">
         <v>0</v>
@@ -14950,15 +14924,15 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="P233" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>41</v>
@@ -14979,7 +14953,7 @@
         <v>32</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I234" s="2">
         <v>0</v>
@@ -14991,7 +14965,7 @@
         <v>70</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="M234" s="2">
         <v>2</v>
@@ -15000,13 +14974,13 @@
         <v>0</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>31</v>
       </c>
@@ -15029,7 +15003,7 @@
         <v>22</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
@@ -15050,15 +15024,15 @@
         <v>0</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>41</v>
@@ -15079,7 +15053,7 @@
         <v>32</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I236" s="2">
         <v>0</v>
@@ -15100,15 +15074,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>41</v>
@@ -15150,15 +15124,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>17</v>
@@ -15179,7 +15153,7 @@
         <v>32</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
@@ -15200,15 +15174,15 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="P238" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>17</v>
@@ -15229,7 +15203,7 @@
         <v>22</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="I239" s="2">
         <v>0</v>
@@ -15250,13 +15224,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="P239" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>99</v>
       </c>
@@ -15279,7 +15253,7 @@
         <v>22</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
@@ -15300,15 +15274,15 @@
         <v>9.375E-2</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="P240" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>17</v>
@@ -15329,7 +15303,7 @@
         <v>100</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="I241" s="2">
         <v>1</v>
@@ -15340,8 +15314,8 @@
       <c r="K241" s="2">
         <v>50</v>
       </c>
-      <c r="L241" s="2" t="s">
-        <v>761</v>
+      <c r="L241" s="2">
+        <v>10</v>
       </c>
       <c r="M241" s="2">
         <v>73</v>
@@ -15350,15 +15324,15 @@
         <v>0.125</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>41</v>
@@ -15379,7 +15353,7 @@
         <v>22</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="I242" s="2">
         <v>0</v>
@@ -15400,13 +15374,13 @@
         <v>0.88263888888888886</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>45</v>
       </c>
@@ -15429,7 +15403,7 @@
         <v>100</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="I243" s="2">
         <v>0</v>
@@ -15447,16 +15421,16 @@
         <v>25</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>45</v>
       </c>
@@ -15479,7 +15453,7 @@
         <v>32</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I244" s="2">
         <v>0</v>
@@ -15500,15 +15474,15 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>41</v>
@@ -15529,7 +15503,7 @@
         <v>22</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="I245" s="2">
         <v>2</v>
@@ -15550,15 +15524,15 @@
         <v>0.125</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>41</v>
@@ -15579,7 +15553,7 @@
         <v>22</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="I246" s="2">
         <v>0</v>
@@ -15600,15 +15574,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P246" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>17</v>
@@ -15629,7 +15603,7 @@
         <v>22</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="I247" s="2">
         <v>3</v>
@@ -15650,15 +15624,15 @@
         <v>0.98749999999999993</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>41</v>
@@ -15679,7 +15653,7 @@
         <v>22</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="I248" s="2">
         <v>0</v>
@@ -15700,15 +15674,15 @@
         <v>0</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="P248" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>41</v>
@@ -15729,7 +15703,7 @@
         <v>22</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I249" s="2">
         <v>0</v>
@@ -15750,13 +15724,13 @@
         <v>0.125</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>40</v>
       </c>
@@ -15779,7 +15753,7 @@
         <v>22</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I250" s="2">
         <v>1</v>
@@ -15800,15 +15774,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="P250" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>41</v>
@@ -15829,7 +15803,7 @@
         <v>32</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="I251" s="2">
         <v>0</v>
@@ -15856,7 +15830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>45</v>
       </c>
@@ -15879,7 +15853,7 @@
         <v>22</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="I252" s="2">
         <v>0</v>
@@ -15900,13 +15874,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P252" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
@@ -15929,7 +15903,7 @@
         <v>54</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="I253" s="2">
         <v>0</v>
@@ -15950,15 +15924,15 @@
         <v>0</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="P253" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>41</v>
@@ -15979,7 +15953,7 @@
         <v>22</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="I254" s="2">
         <v>0</v>
@@ -16000,15 +15974,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P254" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>41</v>
@@ -16029,7 +16003,7 @@
         <v>22</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="I255" s="2">
         <v>0</v>
@@ -16050,13 +16024,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>99</v>
       </c>
@@ -16079,7 +16053,7 @@
         <v>100</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="I256" s="2">
         <v>1</v>
@@ -16100,13 +16074,13 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>99</v>
       </c>
@@ -16129,7 +16103,7 @@
         <v>22</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="I257" s="2">
         <v>0</v>
@@ -16141,7 +16115,7 @@
         <v>20</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="M257" s="2">
         <v>3</v>
@@ -16150,15 +16124,15 @@
         <v>0.96875</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>17</v>
@@ -16179,7 +16153,7 @@
         <v>32</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="I258" s="2">
         <v>0</v>
@@ -16200,15 +16174,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>41</v>
@@ -16229,7 +16203,7 @@
         <v>22</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="I259" s="2">
         <v>0</v>
@@ -16241,7 +16215,7 @@
         <v>35</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="M259" s="2">
         <v>9</v>
@@ -16250,15 +16224,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P259" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>41</v>
@@ -16279,7 +16253,7 @@
         <v>32</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="I260" s="2">
         <v>2</v>
@@ -16297,16 +16271,16 @@
         <v>420</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P260" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>99</v>
       </c>
@@ -16329,7 +16303,7 @@
         <v>22</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="I261" s="2">
         <v>3</v>
@@ -16350,13 +16324,13 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>99</v>
       </c>
@@ -16379,7 +16353,7 @@
         <v>22</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="I262" s="2">
         <v>2</v>
@@ -16400,15 +16374,15 @@
         <v>0</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>17</v>
@@ -16429,7 +16403,7 @@
         <v>22</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
@@ -16447,18 +16421,18 @@
         <v>27</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>41</v>
@@ -16479,7 +16453,7 @@
         <v>22</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="I264" s="2">
         <v>6</v>
@@ -16503,12 +16477,12 @@
         <v>61</v>
       </c>
       <c r="P264" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>17</v>
@@ -16529,7 +16503,7 @@
         <v>22</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="I265" s="2">
         <v>0</v>
@@ -16550,13 +16524,13 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="P265" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>16</v>
       </c>
@@ -16579,7 +16553,7 @@
         <v>32</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="I266" s="2">
         <v>1</v>
@@ -16600,15 +16574,15 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P266" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>17</v>
@@ -16629,7 +16603,7 @@
         <v>22</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="I267" s="2">
         <v>0</v>
@@ -16650,13 +16624,13 @@
         <v>0</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>63</v>
       </c>
@@ -16700,15 +16674,15 @@
         <v>0</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="P268" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>41</v>
@@ -16741,7 +16715,7 @@
         <v>10</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="M269" s="2">
         <v>4</v>
@@ -16750,13 +16724,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="P269" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>99</v>
       </c>
@@ -16779,7 +16753,7 @@
         <v>22</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I270" s="2">
         <v>1</v>
@@ -16788,10 +16762,10 @@
         <v>17</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M270" s="2">
         <v>7</v>
@@ -16800,15 +16774,15 @@
         <v>0</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P270" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>17</v>
@@ -16847,18 +16821,18 @@
         <v>7</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>41</v>
@@ -16879,7 +16853,7 @@
         <v>22</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="I272" s="2">
         <v>4</v>
@@ -16897,16 +16871,16 @@
         <v>7</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="P272" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>45</v>
       </c>
@@ -16929,7 +16903,7 @@
         <v>22</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="I273" s="2">
         <v>0</v>
@@ -16953,12 +16927,12 @@
         <v>81</v>
       </c>
       <c r="P273" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>17</v>
@@ -16979,10 +16953,10 @@
         <v>32</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>17</v>
@@ -17000,13 +16974,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>16</v>
       </c>
@@ -17029,7 +17003,7 @@
         <v>22</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="I275" s="2">
         <v>5</v>
@@ -17056,9 +17030,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>17</v>
@@ -17079,7 +17053,7 @@
         <v>22</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="I276" s="2">
         <v>0</v>
@@ -17097,18 +17071,18 @@
         <v>15</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="P276" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>41</v>
@@ -17129,7 +17103,7 @@
         <v>22</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="I277" s="2">
         <v>2</v>
@@ -17150,15 +17124,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>17</v>
@@ -17179,7 +17153,7 @@
         <v>22</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="I278" s="2">
         <v>0</v>
@@ -17200,13 +17174,13 @@
         <v>0.90625</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="P278" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>73</v>
       </c>
@@ -17229,7 +17203,7 @@
         <v>32</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="I279" s="2">
         <v>12</v>
@@ -17247,16 +17221,16 @@
         <v>42</v>
       </c>
       <c r="N279" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="P279" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>73</v>
       </c>
@@ -17279,7 +17253,7 @@
         <v>32</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="I280" s="2">
         <v>1</v>
@@ -17303,10 +17277,10 @@
         <v>81</v>
       </c>
       <c r="P280" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>73</v>
       </c>
@@ -17329,7 +17303,7 @@
         <v>22</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I281" s="2">
         <v>0</v>
@@ -17350,10 +17324,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="O281" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P281" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment1/data/ODI-2020_cleaned.xlsx
+++ b/Assignment1/data/ODI-2020_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annemijndijkhuis/Documents/Computational Science/Data mining techniques/datamining/Assignment1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C2953-E015-834C-860E-639A9B0FA540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50407867-B015-6643-97FB-9314543DA788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="867">
   <si>
     <t>What programme are you in?</t>
   </si>
@@ -2611,9 +2611,6 @@
     <t>Hobby</t>
   </si>
   <si>
-    <t xml:space="preserve">Excersice </t>
-  </si>
-  <si>
     <t>Relax</t>
   </si>
   <si>
@@ -2624,12 +2621,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
 </sst>
 </file>
@@ -2902,11 +2893,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD281"/>
+  <dimension ref="A1:S281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2925,7 +2916,7 @@
     <col min="17" max="22" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3028,10 +3019,10 @@
         <v>329</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3081,43 +3072,13 @@
         <v>30</v>
       </c>
       <c r="Q3" t="s">
+        <v>863</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="U3" t="s">
-        <v>865</v>
-      </c>
-      <c r="V3" t="s">
-        <v>329</v>
-      </c>
-      <c r="W3" t="s">
-        <v>863</v>
-      </c>
-      <c r="X3" t="s">
-        <v>633</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>861</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>862</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>864</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -3172,11 +3133,9 @@
       <c r="R4" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -3226,16 +3185,14 @@
         <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3290,11 +3247,9 @@
       <c r="R6" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -3350,7 +3305,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -3403,10 +3358,10 @@
         <v>861</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3462,7 +3417,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -3518,7 +3473,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -3574,7 +3529,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -3624,13 +3579,13 @@
         <v>72</v>
       </c>
       <c r="Q12" t="s">
+        <v>863</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3680,13 +3635,13 @@
         <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3742,7 +3697,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -3792,13 +3747,13 @@
         <v>82</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -3848,10 +3803,10 @@
         <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4019,7 +3974,7 @@
         <v>633</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4072,10 +4027,10 @@
         <v>98</v>
       </c>
       <c r="Q20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4131,7 +4086,7 @@
         <v>633</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4243,7 +4198,7 @@
         <v>633</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4355,7 +4310,7 @@
         <v>861</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4467,7 +4422,7 @@
         <v>329</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4579,7 +4534,7 @@
         <v>329</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4859,7 +4814,7 @@
         <v>329</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4968,7 +4923,7 @@
         <v>137</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>861</v>
@@ -5024,7 +4979,7 @@
         <v>158</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>861</v>
@@ -5139,7 +5094,7 @@
         <v>633</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,7 +5262,7 @@
         <v>82</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5363,7 +5318,7 @@
         <v>329</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5475,7 +5430,7 @@
         <v>329</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5699,7 +5654,7 @@
         <v>329</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5752,7 +5707,7 @@
         <v>194</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>633</v>
@@ -5864,10 +5819,10 @@
         <v>202</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,7 +5934,7 @@
         <v>861</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6147,7 +6102,7 @@
         <v>633</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6200,10 +6155,10 @@
         <v>222</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="13" x14ac:dyDescent="0.15">

--- a/Assignment1/data/ODI-2020_cleaned.xlsx
+++ b/Assignment1/data/ODI-2020_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annemijndijkhuis/Documents/Computational Science/Data mining techniques/datamining/Assignment1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50407867-B015-6643-97FB-9314543DA788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C87AF9-DD29-7940-9ADF-3C687E09C25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="861">
   <si>
     <t>What programme are you in?</t>
   </si>
@@ -2603,24 +2603,6 @@
   </si>
   <si>
     <t>19-05-1997</t>
-  </si>
-  <si>
-    <t>Socializing</t>
-  </si>
-  <si>
-    <t>Hobby</t>
-  </si>
-  <si>
-    <t>Relax</t>
-  </si>
-  <si>
-    <t>Food/Drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excercise </t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -2895,9 +2877,9 @@
   </sheetPr>
   <dimension ref="A1:S281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2965,6 +2947,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3015,12 +2998,7 @@
       <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3071,12 +3049,7 @@
       <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
-        <v>863</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -3127,12 +3100,7 @@
       <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
-        <v>633</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3184,12 +3152,7 @@
       <c r="P5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" t="s">
-        <v>864</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3241,12 +3204,7 @@
       <c r="P6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" t="s">
-        <v>329</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3298,12 +3256,7 @@
       <c r="P7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" t="s">
-        <v>329</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -3354,12 +3307,7 @@
       <c r="P8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" t="s">
-        <v>861</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -3410,12 +3358,8 @@
       <c r="P9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -3466,12 +3410,7 @@
       <c r="P10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" t="s">
-        <v>861</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -3522,12 +3461,8 @@
       <c r="P11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -3578,12 +3513,7 @@
       <c r="P12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" t="s">
-        <v>863</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -3634,12 +3564,8 @@
       <c r="P13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -3690,12 +3616,7 @@
       <c r="P14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" t="s">
-        <v>633</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>862</v>
-      </c>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -3746,12 +3667,8 @@
       <c r="P15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -3802,12 +3719,7 @@
       <c r="P16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" t="s">
-        <v>864</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
@@ -3858,12 +3770,8 @@
       <c r="P17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
@@ -3914,12 +3822,7 @@
       <c r="P18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -3970,12 +3873,8 @@
       <c r="P19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -4026,12 +3925,7 @@
       <c r="P20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" t="s">
-        <v>864</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -4082,12 +3976,8 @@
       <c r="P21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -4138,12 +4028,7 @@
       <c r="P22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -4194,12 +4079,8 @@
       <c r="P23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -4250,12 +4131,7 @@
       <c r="P24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" t="s">
-        <v>329</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>862</v>
-      </c>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -4306,12 +4182,8 @@
       <c r="P25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -4362,12 +4234,7 @@
       <c r="P26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q26" t="s">
-        <v>861</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -4418,12 +4285,8 @@
       <c r="P27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
@@ -4474,12 +4337,8 @@
       <c r="P28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -4530,12 +4389,8 @@
       <c r="P29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -4586,12 +4441,8 @@
       <c r="P30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -4642,12 +4493,8 @@
       <c r="P31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -4698,12 +4545,8 @@
       <c r="P32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -4754,12 +4597,8 @@
       <c r="P33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -4810,12 +4649,8 @@
       <c r="P34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -4866,12 +4701,8 @@
       <c r="P35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q35" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -4922,12 +4753,8 @@
       <c r="P36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
@@ -4978,12 +4805,8 @@
       <c r="P37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -5034,12 +4857,8 @@
       <c r="P38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -5090,12 +4909,8 @@
       <c r="P39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>866</v>
-      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -5146,12 +4961,8 @@
       <c r="P40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -5202,12 +5013,8 @@
       <c r="P41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Q41" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -5258,12 +5065,8 @@
       <c r="P42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>863</v>
-      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
@@ -5314,12 +5117,8 @@
       <c r="P43" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Q43" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -5370,12 +5169,8 @@
       <c r="P44" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>862</v>
-      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -5426,12 +5221,8 @@
       <c r="P45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q45" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
@@ -5482,12 +5273,8 @@
       <c r="P46" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Q46" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -5538,12 +5325,8 @@
       <c r="P47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q47" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -5594,12 +5377,8 @@
       <c r="P48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q48" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -5650,12 +5429,8 @@
       <c r="P49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Q49" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>863</v>
-      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -5706,12 +5481,8 @@
       <c r="P50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Q50" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
@@ -5762,12 +5533,8 @@
       <c r="P51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Q51" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -5818,12 +5585,8 @@
       <c r="P52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>866</v>
-      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
@@ -5874,12 +5637,8 @@
       <c r="P53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>861</v>
-      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
@@ -5930,12 +5689,8 @@
       <c r="P54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -5986,12 +5741,8 @@
       <c r="P55" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
@@ -6042,12 +5793,8 @@
       <c r="P56" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q56" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -6098,12 +5845,8 @@
       <c r="P57" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -6154,12 +5897,8 @@
       <c r="P58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>866</v>
-      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -6210,9 +5949,7 @@
       <c r="P59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
